--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8AD58-33C0-4B9A-8B96-BF8DDA88FFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924B3F9-E093-44AC-A281-3C8EC27C624B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11760" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="1" r:id="rId1"/>
+    <sheet name="Lookup Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>ALUMINUM</t>
   </si>
@@ -65,9 +64,6 @@
     <t>Steel(up to 500 Brinell)</t>
   </si>
   <si>
-    <t>Tool Diameter:</t>
-  </si>
-  <si>
     <t>Number of Flutes:</t>
   </si>
   <si>
@@ -77,21 +73,12 @@
     <t>Radial Depth of Cut:</t>
   </si>
   <si>
-    <t xml:space="preserve">Axial Depth of Cut: </t>
-  </si>
-  <si>
     <t>RPM:</t>
   </si>
   <si>
     <t>Actual RPM:</t>
   </si>
   <si>
-    <t xml:space="preserve">Actual Chip Load Per Tooth: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjusted Chip Load Per Tooth: </t>
-  </si>
-  <si>
     <t>5%  Tool Diameter</t>
   </si>
   <si>
@@ -125,12 +112,6 @@
     <t>Cutting Power (HP):</t>
   </si>
   <si>
-    <t>Output Variables</t>
-  </si>
-  <si>
-    <t>Input Variables</t>
-  </si>
-  <si>
     <t>Machine Max RPM:</t>
   </si>
   <si>
@@ -162,6 +143,42 @@
   </si>
   <si>
     <t xml:space="preserve">Feed Rate (in/min): </t>
+  </si>
+  <si>
+    <t>Calculated Values:</t>
+  </si>
+  <si>
+    <t>Input Variables:</t>
+  </si>
+  <si>
+    <t>Output Variables:</t>
+  </si>
+  <si>
+    <t>Recommended Depth of Cut (in):</t>
+  </si>
+  <si>
+    <t>Tool Diameter (in):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axial Depth of Cut (in): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted Chip Load Per Tooth (IPT): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Chip Load Per Tooth (IPT): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip Load (IPT): </t>
+  </si>
+  <si>
+    <t>Recommended MMR (in^3/min):</t>
+  </si>
+  <si>
+    <t>HEM Feeds and Speeds Calculator</t>
+  </si>
+  <si>
+    <t>Created by Shelby Ryan</t>
   </si>
 </sst>
 </file>
@@ -171,10 +188,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,65 +246,47 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,15 +309,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>170699</xdr:colOff>
+      <xdr:colOff>25023</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>129732</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589174</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8296</xdr:rowOff>
+      <xdr:rowOff>30708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -340,12 +345,78 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3891936" y="0"/>
-          <a:ext cx="4281129" cy="6829425"/>
+          <a:off x="3868641" y="22412"/>
+          <a:ext cx="4127621" cy="7056796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>154650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7191BA5F-4DFE-4A2D-AD2F-5DA24BFF648D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="76199"/>
+          <a:ext cx="3552825" cy="2173951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -650,355 +721,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318487D9-3DF9-422E-A87B-3126276F45BA}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="8" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="8"/>
+    <col min="7" max="7" width="9.7109375" style="8" customWidth="1"/>
+    <col min="8" max="21" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="14">
+        <f>B7/(0.262*B5)</f>
+        <v>6106.8702290076335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="15">
+        <f>((B5/2)/B22)^2*B10</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15">
+        <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
+        <v>3.4412360080584266E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="15">
+        <f>'Lookup Tables'!C11*Calculations!B5</f>
+        <v>0.61874999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="15">
+        <f>B16*B22*B20</f>
+        <v>0.95816915099376831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <f xml:space="preserve"> IF(B7/(0.262*B5)&gt;B11,B11,B7/(0.262*B5))</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13">
+        <f>B19*B6*B15</f>
+        <v>82.589664193402243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13">
+        <f>0.35*B20</f>
+        <v>28.906382467690783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5">
+        <f>B5*'Lookup Tables'!B11</f>
+        <v>1.8750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12">
+        <f>B22*B9*B20*'Lookup Tables'!E10</f>
+        <v>0.34842514581591577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="12">
+        <f>B9*B22*B20</f>
+        <v>1.1614171527197192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="12">
-        <f xml:space="preserve"> IF(B6/(0.262*B4)&gt;B10,B10,B6/(0.262*B4))</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="8">
-        <f>B12*B5*E60</f>
-        <v>27.529888064467418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="8">
-        <f>0.35*B13</f>
-        <v>9.635460822563596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="8">
-        <f>B4*B55</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
-        <f>B15*B8*B13*E55</f>
-        <v>7.7427810181314616E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3">
-        <f>B8*B15*B13</f>
-        <v>0.25809270060438205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
-        <v>0.05</v>
-      </c>
-      <c r="D45" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>0.1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47">
-        <v>0.15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>0.2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49">
-        <v>0.25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50">
-        <v>0.3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51">
-        <v>0.35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52">
-        <v>0.4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53">
-        <v>0.35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B55">
-        <f>VLOOKUP(B7,A45:B54,2,0)</f>
-        <v>0.05</v>
-      </c>
-      <c r="E55">
-        <f>VLOOKUP(B3,D45:E53,2,0)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57">
-        <f>B6/(0.262*B4)</f>
-        <v>9160.3053435114507</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59">
-        <f>((B4/2)/B15)^2*B9</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60">
-        <f>(B9*(B4/2))/SQRT((B4*B15)-B15^2)</f>
-        <v>2.294157338705618E-3</v>
-      </c>
-    </row>
+    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{9B33EFF2-B2CC-4C93-B8BE-852D842C47D7}">
-      <formula1>$A$45:$A$54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{9766C611-05C6-465B-9D0D-63914E19F83E}">
-      <formula1>$D$45:$D$53</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B33EFF2-B2CC-4C93-B8BE-852D842C47D7}">
+          <x14:formula1>
+            <xm:f>'Lookup Tables'!$A$1:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9766C611-05C6-465B-9D0D-63914E19F83E}">
+          <x14:formula1>
+            <xm:f>'Lookup Tables'!$D$1:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E49C-5DAD-42A4-93CF-5CE85DFD4D6B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1">
+        <v>0.05</v>
+      </c>
+      <c r="C1">
+        <v>1.65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>1.25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0.35</v>
+      </c>
+      <c r="C7">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>0.375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0.35</v>
+      </c>
+      <c r="C9">
+        <v>0.33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(Calculations!B4,D1:E9,2,0)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>VLOOKUP(Calculations!B8,A1:B10,2,0)</f>
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1924B3F9-E093-44AC-A281-3C8EC27C624B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348CB43-47D1-4CC3-9FFA-02B9AF1F6208}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -32,22 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
-  <si>
-    <t>ALUMINUM</t>
-  </si>
-  <si>
-    <t>MAGNESIUM</t>
-  </si>
-  <si>
-    <t>COPPER</t>
-  </si>
-  <si>
-    <t>BRASS</t>
-  </si>
-  <si>
-    <t>BRONZE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Material:</t>
   </si>
@@ -179,6 +164,48 @@
   </si>
   <si>
     <t>Created by Shelby Ryan</t>
+  </si>
+  <si>
+    <t>Gray Cast Iron</t>
+  </si>
+  <si>
+    <t>Ductile Cast Iron</t>
+  </si>
+  <si>
+    <t>Maleable Cast Iron</t>
+  </si>
+  <si>
+    <t>Chilled Cast Iron</t>
+  </si>
+  <si>
+    <t>High Tensile Alloys</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>PH Series Stainless Steels</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Brass</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>300 Series Stainless Steels</t>
+  </si>
+  <si>
+    <t>High Temp Alloys</t>
   </si>
 </sst>
 </file>
@@ -724,7 +751,7 @@
   <dimension ref="A1:U215"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,31 +767,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4">
         <v>0.375</v>
@@ -772,7 +799,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
@@ -780,7 +807,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="10">
         <v>600</v>
@@ -788,15 +815,15 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4">
         <v>0.75</v>
@@ -804,7 +831,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>1.5E-3</v>
@@ -812,7 +839,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>6000</v>
@@ -821,12 +848,12 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="14">
         <f>B7/(0.262*B5)</f>
@@ -835,7 +862,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="15">
         <f>((B5/2)/B22)^2*B10</f>
@@ -845,7 +872,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B15" s="15">
         <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
@@ -854,7 +881,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B16" s="15">
         <f>'Lookup Tables'!C11*Calculations!B5</f>
@@ -863,7 +890,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" s="15">
         <f>B16*B22*B20</f>
@@ -873,12 +900,12 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5">
         <f xml:space="preserve"> IF(B7/(0.262*B5)&gt;B11,B11,B7/(0.262*B5))</f>
@@ -887,7 +914,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B6*B15</f>
@@ -896,7 +923,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="13">
         <f>0.35*B20</f>
@@ -905,7 +932,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5">
         <f>B5*'Lookup Tables'!B11</f>
@@ -914,16 +941,16 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B23" s="12">
-        <f>B22*B9*B20*'Lookup Tables'!E10</f>
-        <v>0.34842514581591577</v>
+        <f>B22*B9*B20*'Lookup Tables'!E19</f>
+        <v>0.29035428817992981</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="12">
         <f>B9*B22*B20</f>
@@ -936,30 +963,30 @@
     </row>
     <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1201,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B33EFF2-B2CC-4C93-B8BE-852D842C47D7}">
           <x14:formula1>
             <xm:f>'Lookup Tables'!$A$1:$A$10</xm:f>
@@ -1183,7 +1210,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9766C611-05C6-465B-9D0D-63914E19F83E}">
           <x14:formula1>
-            <xm:f>'Lookup Tables'!$D$1:$D$9</xm:f>
+            <xm:f>'Lookup Tables'!$D$1:$D$18</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
@@ -1195,21 +1222,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E49C-5DAD-42A4-93CF-5CE85DFD4D6B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1">
         <v>0.05</v>
@@ -1218,15 +1245,15 @@
         <v>1.65</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1235,15 +1262,15 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1252,7 +1279,7 @@
         <v>1.25</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1260,7 +1287,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -1269,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -1277,7 +1304,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -1286,7 +1313,7 @@
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -1294,7 +1321,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -1303,7 +1330,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1.4</v>
@@ -1311,7 +1338,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0.35</v>
@@ -1320,7 +1347,7 @@
         <v>0.42499999999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>1.7</v>
@@ -1328,7 +1355,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -1337,7 +1364,7 @@
         <v>0.375</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1345,7 +1372,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.35</v>
@@ -1354,7 +1381,7 @@
         <v>0.33</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -1362,7 +1389,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -1370,9 +1397,11 @@
       <c r="C10">
         <v>0.16500000000000001</v>
       </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
       <c r="E10">
-        <f>VLOOKUP(Calculations!B4,D1:E9,2,0)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1384,10 +1413,76 @@
         <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
         <v>1.65</v>
       </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f>VLOOKUP(Calculations!B4,D1:E18,2,0)</f>
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B348CB43-47D1-4CC3-9FFA-02B9AF1F6208}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE48FCA-DB37-4F98-B9C1-D1E0DE0406C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>Material:</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Material Removal Rate (in^3/min):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chip Load: </t>
   </si>
   <si>
     <t>Chip Load = 0.0002 to 0.002</t>
@@ -748,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318487D9-3DF9-422E-A87B-3126276F45BA}">
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,18 +764,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -786,12 +783,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4">
         <v>0.375</v>
@@ -823,7 +820,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4">
         <v>0.75</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>1.5E-3</v>
@@ -848,7 +845,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +859,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="15">
         <f>((B5/2)/B22)^2*B10</f>
@@ -872,7 +869,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="15">
         <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
@@ -881,7 +878,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="15">
         <f>'Lookup Tables'!C11*Calculations!B5</f>
@@ -890,7 +887,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="15">
         <f>B16*B22*B20</f>
@@ -900,7 +897,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +911,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B6*B15</f>
@@ -923,7 +920,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="13">
         <f>0.35*B20</f>
@@ -932,7 +929,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5">
         <f>B5*'Lookup Tables'!B11</f>
@@ -963,15 +960,17 @@
     </row>
     <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -981,14 +980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
+    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1002,7 +994,9 @@
     <row r="40" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+    </row>
     <row r="44" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
     </row>
@@ -1030,9 +1024,7 @@
     <row r="52" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-    </row>
+    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1186,6 @@
     <row r="212" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="213" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="214" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1245,7 +1236,7 @@
         <v>1.65</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1">
         <v>0.25</v>
@@ -1262,7 +1253,7 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>0.25</v>
@@ -1279,7 +1270,7 @@
         <v>1.25</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1296,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -1313,7 +1304,7 @@
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -1398,7 +1389,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -1414,7 +1405,7 @@
         <v>1.65</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0.56000000000000005</v>
@@ -1424,7 +1415,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>0.67</v>
@@ -1432,7 +1423,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>1.67</v>
@@ -1440,7 +1431,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -1448,7 +1439,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>1.67</v>
@@ -1456,7 +1447,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>1.33</v>
@@ -1464,7 +1455,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1472,7 +1463,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>2.5</v>

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE48FCA-DB37-4F98-B9C1-D1E0DE0406C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11457337-7029-4923-BACF-6ADEAFEA66ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>Material:</t>
   </si>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">Surface Feet per Minute: </t>
   </si>
   <si>
-    <t>Radial Depth of Cut:</t>
-  </si>
-  <si>
     <t>RPM:</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Output Variables:</t>
   </si>
   <si>
-    <t>Recommended Depth of Cut (in):</t>
-  </si>
-  <si>
     <t>Tool Diameter (in):</t>
   </si>
   <si>
@@ -203,6 +197,42 @@
   </si>
   <si>
     <t>High Temp Alloys</t>
+  </si>
+  <si>
+    <t>How to use HEM Fees and Speeds Calculator:</t>
+  </si>
+  <si>
+    <t>2. Enter the tool diameter in inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select the material you plan on maching from the drop down menu </t>
+  </si>
+  <si>
+    <t>3. Enter the number of flutes on your tool</t>
+  </si>
+  <si>
+    <t>4. Enter the correct SFM value for the given material from the SFM Look up chart</t>
+  </si>
+  <si>
+    <t>SFM Look Up Chart:</t>
+  </si>
+  <si>
+    <t>5. Select the radial width of cut from the drop down menu</t>
+  </si>
+  <si>
+    <t>Radial Width of Cut (% Tool Diameter):</t>
+  </si>
+  <si>
+    <t>6. Enter the desired axial depth of cut. If unkown, enter the value located in B16</t>
+  </si>
+  <si>
+    <t>Recommended Axial Depth of Cut (in):</t>
+  </si>
+  <si>
+    <t>7. Enter the chip load in inch per tooth. Refference B27 and B28 for more information</t>
+  </si>
+  <si>
+    <t>8. Enter the max RPM of your machine</t>
   </si>
 </sst>
 </file>
@@ -274,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -311,6 +341,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,15 +364,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25023</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>13817</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>589174</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>30708</xdr:rowOff>
+      <xdr:colOff>577968</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30707</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -369,7 +400,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3868641" y="22412"/>
+          <a:off x="3846229" y="212911"/>
           <a:ext cx="4127621" cy="7056796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -747,35 +778,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318487D9-3DF9-422E-A87B-3126276F45BA}">
   <dimension ref="A1:U214"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="8" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="79" style="8" customWidth="1"/>
     <col min="8" max="21" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,15 +826,21 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4">
         <v>0.375</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,6 +850,9 @@
       <c r="B6" s="11">
         <v>4</v>
       </c>
+      <c r="G6" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -809,26 +861,35 @@
       <c r="B7" s="10">
         <v>600</v>
       </c>
+      <c r="G7" s="16" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4">
         <v>0.75</v>
       </c>
+      <c r="G9" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>1.5E-3</v>
@@ -836,7 +897,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>6000</v>
@@ -845,12 +906,12 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="14">
         <f>B7/(0.262*B5)</f>
@@ -859,50 +920,50 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="15">
         <f>((B5/2)/B22)^2*B10</f>
-        <v>0.14999999999999997</v>
+        <v>9.3749999999999979E-3</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="15">
         <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
-        <v>3.4412360080584266E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B16" s="15">
         <f>'Lookup Tables'!C11*Calculations!B5</f>
-        <v>0.61874999999999991</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="15">
         <f>B16*B22*B20</f>
-        <v>0.95816915099376831</v>
+        <v>1.2656250000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="5">
         <f xml:space="preserve"> IF(B7/(0.262*B5)&gt;B11,B11,B7/(0.262*B5))</f>
@@ -911,47 +972,47 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B6*B15</f>
-        <v>82.589664193402243</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13">
         <f>0.35*B20</f>
-        <v>28.906382467690783</v>
+        <v>15.749999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5">
         <f>B5*'Lookup Tables'!B11</f>
-        <v>1.8750000000000003E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="12">
         <f>B22*B9*B20*'Lookup Tables'!E19</f>
-        <v>0.29035428817992981</v>
+        <v>0.63281250000000011</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="12">
         <f>B9*B22*B20</f>
-        <v>1.1614171527197192</v>
+        <v>2.5312500000000004</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,24 +1021,24 @@
     </row>
     <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1288,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>0.05</v>
@@ -1236,7 +1297,7 @@
         <v>1.65</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E1">
         <v>0.25</v>
@@ -1244,7 +1305,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1253,7 +1314,7 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>0.25</v>
@@ -1261,7 +1322,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -1270,7 +1331,7 @@
         <v>1.25</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1278,7 +1339,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -1287,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0.4</v>
@@ -1295,7 +1356,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -1304,7 +1365,7 @@
         <v>0.75</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -1312,7 +1373,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0.3</v>
@@ -1329,7 +1390,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>0.35</v>
@@ -1346,7 +1407,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.4</v>
@@ -1363,7 +1424,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.35</v>
@@ -1380,7 +1441,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -1389,7 +1450,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0.5</v>
@@ -1398,14 +1459,14 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>VLOOKUP(Calculations!B8,A1:B10,2,0)</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
         <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0.56000000000000005</v>
@@ -1415,7 +1476,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0.67</v>
@@ -1423,7 +1484,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>1.67</v>
@@ -1431,7 +1492,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>2.5</v>
@@ -1439,7 +1500,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>1.67</v>
@@ -1447,7 +1508,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>1.33</v>
@@ -1455,7 +1516,7 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1463,7 +1524,7 @@
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>2.5</v>

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11457337-7029-4923-BACF-6ADEAFEA66ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E391BC5-FB33-429C-B5EA-8D48C6EE3210}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Material:</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>8. Enter the max RPM of your machine</t>
+  </si>
+  <si>
+    <t>9. Enter the output variables into your CAM software of choice, B18-B24</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +896,9 @@
       </c>
       <c r="B10" s="2">
         <v>1.5E-3</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E391BC5-FB33-429C-B5EA-8D48C6EE3210}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1FACC-3471-49B0-8A8D-3F0080BA9E61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookup Tables" sheetId="2" r:id="rId2"/>
+    <sheet name="Reference Tables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Material:</t>
   </si>
@@ -109,12 +109,6 @@
     <t xml:space="preserve">Recommendations: </t>
   </si>
   <si>
-    <t>Tool Diameter &lt; .5   ===&gt;</t>
-  </si>
-  <si>
-    <t>Tool Diameter &gt; .5  ====&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimal Load (in): </t>
   </si>
   <si>
@@ -199,15 +193,9 @@
     <t>High Temp Alloys</t>
   </si>
   <si>
-    <t>How to use HEM Fees and Speeds Calculator:</t>
-  </si>
-  <si>
     <t>2. Enter the tool diameter in inches</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select the material you plan on maching from the drop down menu </t>
-  </si>
-  <si>
     <t>3. Enter the number of flutes on your tool</t>
   </si>
   <si>
@@ -236,6 +224,27 @@
   </si>
   <si>
     <t>9. Enter the output variables into your CAM software of choice, B18-B24</t>
+  </si>
+  <si>
+    <t>How to use the HEM Feeds and Speeds Calculator:</t>
+  </si>
+  <si>
+    <t>1. Select the material you plan on machining from the drop down menu located in B4</t>
+  </si>
+  <si>
+    <t>Tool Diameter &lt; 0.5   ===&gt;</t>
+  </si>
+  <si>
+    <t>Tool Diameter &gt; 0.5  ====&gt;</t>
+  </si>
+  <si>
+    <t>% Tool Diameter:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material machinability Ratings: </t>
+  </si>
+  <si>
+    <t>Axial Depth based on Width of Cut:</t>
   </si>
 </sst>
 </file>
@@ -409,72 +418,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>154650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7191BA5F-4DFE-4A2D-AD2F-5DA24BFF648D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4838700" y="76199"/>
-          <a:ext cx="3552825" cy="2173951"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -782,7 +725,7 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,30 +741,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -829,21 +772,21 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
         <v>0.375</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -854,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -865,40 +808,40 @@
         <v>600</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4">
         <v>0.75</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
         <v>1.5E-3</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -912,7 +855,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -926,45 +869,45 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="15">
         <f>((B5/2)/B22)^2*B10</f>
-        <v>9.3749999999999979E-3</v>
+        <v>3.7499999999999992E-2</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="15">
         <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
-        <v>1.8749999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" s="15">
-        <f>'Lookup Tables'!C11*Calculations!B5</f>
-        <v>0.375</v>
+        <f>'Reference Tables'!C12*Calculations!B5</f>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="15">
         <f>B16*B22*B20</f>
-        <v>1.2656250000000002</v>
+        <v>1.265625</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,29 +921,29 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B6*B15</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="13">
         <f>0.35*B20</f>
-        <v>15.749999999999998</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
-        <f>B5*'Lookup Tables'!B11</f>
-        <v>7.5000000000000011E-2</v>
+        <f>B5*'Reference Tables'!B12</f>
+        <v>3.7500000000000006E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,8 +951,8 @@
         <v>19</v>
       </c>
       <c r="B23" s="12">
-        <f>B22*B9*B20*'Lookup Tables'!E19</f>
-        <v>0.63281250000000011</v>
+        <f>B22*B9*B20*'Reference Tables'!F20</f>
+        <v>0.42187500000000006</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +961,7 @@
       </c>
       <c r="B24" s="12">
         <f>B9*B22*B20</f>
-        <v>2.5312500000000004</v>
+        <v>1.6875000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,7 +976,7 @@
     </row>
     <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>22</v>
@@ -1041,7 +984,7 @@
     </row>
     <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>23</v>
@@ -1262,13 +1205,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B33EFF2-B2CC-4C93-B8BE-852D842C47D7}">
           <x14:formula1>
-            <xm:f>'Lookup Tables'!$A$1:$A$10</xm:f>
+            <xm:f>'Reference Tables'!$A$2:$A$11</xm:f>
           </x14:formula1>
           <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9766C611-05C6-465B-9D0D-63914E19F83E}">
           <x14:formula1>
-            <xm:f>'Lookup Tables'!$D$1:$D$18</xm:f>
+            <xm:f>'Reference Tables'!$E$2:$E$19</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
@@ -1280,271 +1223,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E49C-5DAD-42A4-93CF-5CE85DFD4D6B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>1.65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>1.25</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="E1">
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
+      <c r="C6">
+        <v>0.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.35</v>
+      </c>
+      <c r="C8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>0.375</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.35</v>
+      </c>
+      <c r="C10">
+        <v>0.33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>VLOOKUP(Calculations!B8,A2:B11,2,0)</f>
         <v>0.1</v>
       </c>
-      <c r="C2">
+      <c r="C12">
+        <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
         <v>1.5</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.15</v>
-      </c>
-      <c r="C3">
-        <v>1.25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
-      </c>
-      <c r="C4">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
-        <v>0.75</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>0.3</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.35</v>
-      </c>
-      <c r="C7">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0.4</v>
-      </c>
-      <c r="C8">
-        <v>0.375</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0.35</v>
-      </c>
-      <c r="C9">
-        <v>0.33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9">
+      <c r="F19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>0.5</v>
-      </c>
-      <c r="C10">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>VLOOKUP(Calculations!B8,A1:B10,2,0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="C11">
-        <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E19">
-        <f>VLOOKUP(Calculations!B4,D1:E18,2,0)</f>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>VLOOKUP(Calculations!B4,E2:F19,2,0)</f>
         <v>0.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF1FACC-3471-49B0-8A8D-3F0080BA9E61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0F6E4-0D2F-47DE-9820-9B6252CF8964}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Material:</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Chip Load = 0.002 to 0.003</t>
   </si>
   <si>
-    <t xml:space="preserve">Recommendations: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Optimal Load (in): </t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t xml:space="preserve">Feed Rate (in/min): </t>
   </si>
   <si>
-    <t>Calculated Values:</t>
-  </si>
-  <si>
     <t>Input Variables:</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>HEM Feeds and Speeds Calculator</t>
   </si>
   <si>
-    <t>Created by Shelby Ryan</t>
-  </si>
-  <si>
     <t>Gray Cast Iron</t>
   </si>
   <si>
@@ -193,45 +184,18 @@
     <t>High Temp Alloys</t>
   </si>
   <si>
-    <t>2. Enter the tool diameter in inches</t>
-  </si>
-  <si>
-    <t>3. Enter the number of flutes on your tool</t>
-  </si>
-  <si>
-    <t>4. Enter the correct SFM value for the given material from the SFM Look up chart</t>
-  </si>
-  <si>
-    <t>SFM Look Up Chart:</t>
-  </si>
-  <si>
-    <t>5. Select the radial width of cut from the drop down menu</t>
-  </si>
-  <si>
     <t>Radial Width of Cut (% Tool Diameter):</t>
   </si>
   <si>
-    <t>6. Enter the desired axial depth of cut. If unkown, enter the value located in B16</t>
-  </si>
-  <si>
     <t>Recommended Axial Depth of Cut (in):</t>
   </si>
   <si>
-    <t>7. Enter the chip load in inch per tooth. Refference B27 and B28 for more information</t>
-  </si>
-  <si>
-    <t>8. Enter the max RPM of your machine</t>
-  </si>
-  <si>
     <t>9. Enter the output variables into your CAM software of choice, B18-B24</t>
   </si>
   <si>
     <t>How to use the HEM Feeds and Speeds Calculator:</t>
   </si>
   <si>
-    <t>1. Select the material you plan on machining from the drop down menu located in B4</t>
-  </si>
-  <si>
     <t>Tool Diameter &lt; 0.5   ===&gt;</t>
   </si>
   <si>
@@ -245,6 +209,45 @@
   </si>
   <si>
     <t>Axial Depth based on Width of Cut:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SFM Reference Table:</t>
+  </si>
+  <si>
+    <t>Recommended SFM:</t>
+  </si>
+  <si>
+    <t>Intermediate Calculations:</t>
+  </si>
+  <si>
+    <t>by Shelby Ryan</t>
+  </si>
+  <si>
+    <t>more detail regarding SFM values, check the SFM Reference table on the Reference Tables sheet.</t>
+  </si>
+  <si>
+    <t>4. Enter the correct SFM value for the given material. If unknown enter the value located in C18. For</t>
+  </si>
+  <si>
+    <t>5. Select the radial width of cut from the drop down menu. (% Tool Diameter)</t>
+  </si>
+  <si>
+    <t>1. Select the material you plan on machining from the drop down menu located in C4.</t>
+  </si>
+  <si>
+    <t>2. Enter the tool diameter. (inches)</t>
+  </si>
+  <si>
+    <t>3. Enter the number of flutes on your tool.</t>
+  </si>
+  <si>
+    <t>6. Enter the desired axial depth of cut. If unknown, enter the value located in B16. (inches)</t>
+  </si>
+  <si>
+    <t>7. Enter the chip load in inch per tooth. Reference B27 and B28 for more information.</t>
+  </si>
+  <si>
+    <t>8. Enter the max RPM of your machine.</t>
   </si>
 </sst>
 </file>
@@ -375,23 +378,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>13817</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577968</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>30707</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADC0D8-4287-4589-87A5-8C06D5E19834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB555E8-C0CD-4204-BE3E-E1DAEAD18100}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,8 +415,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3846229" y="212911"/>
-          <a:ext cx="4127621" cy="7056796"/>
+          <a:off x="9448799" y="190500"/>
+          <a:ext cx="5355772" cy="8719663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,275 +728,304 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" style="8" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="79" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="8" customWidth="1"/>
     <col min="8" max="21" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="8" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>600</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="16" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="14">
+        <f>C7/(0.262*C5)</f>
+        <v>6106.8702290076335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15">
+        <f>((C5/2)/C25)^2*C10</f>
+        <v>2.3437499999999995E-3</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="15">
+        <f>(C10*(C5/2))/SQRT((C5*C25)-C25^2)</f>
+        <v>1.5309310892394864E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="15">
+        <f>'Reference Tables'!D12*Calculations!C5</f>
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15">
+        <f>C16*C25*C23</f>
+        <v>0.77503386392749007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="7">
+        <f>'Reference Tables'!H20</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="C19" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>600</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5">
+        <f xml:space="preserve"> IF(C7/(0.262*C5)&gt;C11,C11,C7/(0.262*C5))</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14">
-        <f>B7/(0.262*B5)</f>
-        <v>6106.8702290076335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="15">
-        <f>((B5/2)/B22)^2*B10</f>
-        <v>3.7499999999999992E-2</v>
-      </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="15">
-        <f>(B10*(B5/2))/SQRT((B5*B22)-B22^2)</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="15">
-        <f>'Reference Tables'!C12*Calculations!B5</f>
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="15">
-        <f>B16*B22*B20</f>
-        <v>1.265625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5">
-        <f xml:space="preserve"> IF(B7/(0.262*B5)&gt;B11,B11,B7/(0.262*B5))</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="13">
-        <f>B19*B6*B15</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="13">
-        <f>0.35*B20</f>
+      <c r="C23" s="13">
+        <f>C22*C6*C15</f>
+        <v>36.742346141747674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="13">
+        <f>0.35*C23</f>
+        <v>12.859821149611685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <f>C5*'Reference Tables'!B12</f>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12">
+        <f>C25*C9*C23*'Reference Tables'!G20</f>
+        <v>1.0333784852366534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5">
-        <f>B5*'Reference Tables'!B12</f>
-        <v>3.7500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="12">
-        <f>B22*B9*B20*'Reference Tables'!F20</f>
-        <v>0.42187500000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="12">
-        <f>B9*B22*B20</f>
-        <v>1.6875000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C27" s="12">
+        <f>C9*C25*C23</f>
+        <v>4.1335139409466137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1199,21 +1231,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B33EFF2-B2CC-4C93-B8BE-852D842C47D7}">
           <x14:formula1>
             <xm:f>'Reference Tables'!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9766C611-05C6-465B-9D0D-63914E19F83E}">
           <x14:formula1>
-            <xm:f>'Reference Tables'!$E$2:$E$19</xm:f>
+            <xm:f>'Reference Tables'!$F$2:$F$19</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>C4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1223,282 +1254,348 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E49C-5DAD-42A4-93CF-5CE85DFD4D6B}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
         <v>0.05</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1.65</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.5</v>
       </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>0.15</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1.25</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>0.2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.75</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>0.3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>0.35</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.42499999999999999</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>0.4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.375</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>0.35</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.33</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.16500000000000001</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <f>VLOOKUP(Calculations!B8,A2:B11,2,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="C12">
-        <f>VLOOKUP(Calculations!B8,A1:C10,3,0)</f>
-        <v>1.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
+        <f>VLOOKUP(Calculations!C8,A2:B11,2,0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(Calculations!C8,A1:D10,4,0)</f>
+        <v>0.375</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>0.67</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>1.67</v>
+      </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
         <v>41</v>
       </c>
-      <c r="F13">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="G16">
+        <v>1.67</v>
+      </c>
+      <c r="H16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>42</v>
       </c>
-      <c r="F14">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15">
+      <c r="G17">
+        <v>1.33</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F20">
-        <f>VLOOKUP(Calculations!B4,E2:F19,2,0)</f>
+      <c r="H19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>VLOOKUP(Calculations!C4,F2:G19,2,0)</f>
         <v>0.25</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP(Calculations!C4,F2:H19,3,0)</f>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0F6E4-0D2F-47DE-9820-9B6252CF8964}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D7097-2695-4647-95C9-8ABDDD9F6E03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -319,44 +319,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,189 +740,189 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="90.5703125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="9.28515625" style="8" customWidth="1"/>
-    <col min="8" max="21" width="9.140625" style="8"/>
+    <col min="3" max="3" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="90.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.28515625" style="3" customWidth="1"/>
+    <col min="8" max="21" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C1"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="19">
         <v>600</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>0.75</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="16">
         <v>1.5E-3</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="16">
         <v>6000</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="8">
         <f>C7/(0.262*C5)</f>
-        <v>6106.8702290076335</v>
+        <v>4580.1526717557254</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="9">
         <f>((C5/2)/C25)^2*C10</f>
-        <v>2.3437499999999995E-3</v>
+        <v>2.3437499999999999E-3</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="9">
         <f>(C10*(C5/2))/SQRT((C5*C25)-C25^2)</f>
         <v>1.5309310892394864E-3</v>
       </c>
@@ -919,22 +931,22 @@
       <c r="B16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="9">
         <f>'Reference Tables'!D12*Calculations!C5</f>
-        <v>0.140625</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="9">
         <f>C16*C25*C23</f>
-        <v>0.77503386392749007</v>
+        <v>1.0517847177981208</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="7">
@@ -943,7 +955,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -951,7 +963,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -959,275 +971,275 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="10">
         <f xml:space="preserve"> IF(C7/(0.262*C5)&gt;C11,C11,C7/(0.262*C5))</f>
-        <v>6000</v>
+        <v>4580.1526717557254</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <f>C22*C6*C15</f>
-        <v>36.742346141747674</v>
+        <v>28.047592474616547</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <f>0.35*C23</f>
-        <v>12.859821149611685</v>
+        <v>9.8166573661157912</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="10">
         <f>C5*'Reference Tables'!B12</f>
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="12">
         <f>C25*C9*C23*'Reference Tables'!G20</f>
-        <v>1.0333784852366534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.0517847177981208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="12">
         <f>C9*C25*C23</f>
-        <v>4.1335139409466137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-    </row>
-    <row r="45" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>4.2071388711924831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+    </row>
+    <row r="51" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1254,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08E49C-5DAD-42A4-93CF-5CE85DFD4D6B}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection sqref="A1:R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,327 +1282,1153 @@
     <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="13">
         <v>0.05</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
         <v>1.65</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <v>0.25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="13">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="13">
         <v>0.1</v>
       </c>
-      <c r="D3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13">
         <v>1.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="13">
         <v>0.25</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>0.15</v>
       </c>
-      <c r="D4">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>1.25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>0.5</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="13">
         <v>800</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>0.2</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="13">
         <v>0.4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="13">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>0.25</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
         <v>0.75</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>0.5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="13">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>0.3</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>0.5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>1.4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="13">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>0.35</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>1.7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="13">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>0.4</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
         <v>0.375</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="13">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>0.35</v>
       </c>
-      <c r="D10">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
         <v>0.33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>2.5</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="13">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="13">
         <v>0.5</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>0.5</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="13">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13">
         <f>VLOOKUP(Calculations!C8,A2:B11,2,0)</f>
         <v>0.4</v>
       </c>
-      <c r="D12">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <f>VLOOKUP(Calculations!C8,A1:D10,4,0)</f>
         <v>0.375</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="13">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="F13" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>0.67</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="13">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>1.67</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="13">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="13">
         <v>2.5</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>1.67</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="13">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>1.33</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="13">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="13">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="13">
         <v>2.5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="13">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="G20">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <f>VLOOKUP(Calculations!C4,F2:G19,2,0)</f>
         <v>0.25</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="13">
         <f>VLOOKUP(Calculations!C4,F2:H19,3,0)</f>
         <v>1200</v>
       </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D7097-2695-4647-95C9-8ABDDD9F6E03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6A256-5904-410B-A24D-BAC036CFA4A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <t>Recommended Axial Depth of Cut (in):</t>
   </si>
   <si>
-    <t>9. Enter the output variables into your CAM software of choice, B18-B24</t>
-  </si>
-  <si>
     <t>How to use the HEM Feeds and Speeds Calculator:</t>
   </si>
   <si>
@@ -244,10 +241,13 @@
     <t>6. Enter the desired axial depth of cut. If unknown, enter the value located in B16. (inches)</t>
   </si>
   <si>
-    <t>7. Enter the chip load in inch per tooth. Reference B27 and B28 for more information.</t>
-  </si>
-  <si>
     <t>8. Enter the max RPM of your machine.</t>
+  </si>
+  <si>
+    <t>9. Enter the output variables into your CAM software of choice, C18-C24</t>
+  </si>
+  <si>
+    <t>7. Enter the chip load in inch per tooth. Reference C27 and C28 for more information.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,16 +760,16 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>600</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>0.75</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>1.5E-3</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>6000</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <f>'Reference Tables'!H20</f>
@@ -956,7 +956,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>22</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>23</v>
@@ -1284,22 +1284,22 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>

--- a/FeedsandSpeeds_Rev1.xlsx
+++ b/FeedsandSpeeds_Rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tankh\Documents\GitHub\HEM_Feeds_and_Speeds_Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6A256-5904-410B-A24D-BAC036CFA4A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EAA81-9DE7-46E9-8636-02843B74CCCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{085F0F65-DED3-4561-B200-39C5AB6CBB0D}"/>
   </bookViews>
@@ -244,10 +244,10 @@
     <t>8. Enter the max RPM of your machine.</t>
   </si>
   <si>
-    <t>9. Enter the output variables into your CAM software of choice, C18-C24</t>
-  </si>
-  <si>
-    <t>7. Enter the chip load in inch per tooth. Reference C27 and C28 for more information.</t>
+    <t>9. Enter the output variables into your CAM software of choice, C21-C27</t>
+  </si>
+  <si>
+    <t>7. Enter the chip load in inch per tooth. Reference C19 and C20 for more information.</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
   <dimension ref="A1:U214"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
